--- a/Assets/config/config.xlsx
+++ b/Assets/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>NumsTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}*{1},{0}/{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -460,6 +468,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/config/config.xlsx
+++ b/Assets/config/config.xlsx
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0f, 1.0f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,6 +47,10 @@
   </si>
   <si>
     <t>{0}*{1},{0}/{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0, 1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -439,16 +439,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -470,13 +470,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>

--- a/Assets/config/config.xlsx
+++ b/Assets/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,7 +50,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0, 1.0</t>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-1.1,1.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.0, 1.0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,17 +427,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="42.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="47" style="3" customWidth="1"/>
     <col min="5" max="5" width="55.25" style="3" customWidth="1"/>
   </cols>
@@ -441,7 +449,7 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -458,8 +466,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -475,13 +483,30 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
         <v>10</v>
       </c>
     </row>
